--- a/biology/Zoologie/Catoptridae/Catoptridae.xlsx
+++ b/biology/Zoologie/Catoptridae/Catoptridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Catoptridae sont une famille de crabes. Elle comporte onze espèces dans deux genres. Ils étaient auparavant considérés comme des Portunidae[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Catoptridae sont une famille de crabes. Elle comporte onze espèces dans deux genres. Ils étaient auparavant considérés comme des Portunidae,.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Catoptrus A. Milne-Edwards, 1870
 Libystes A. Milne-Edwards, 1867</t>
@@ -542,7 +556,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Borradaile, 1902 : Marine crustaceans. I. On varieties. II. Portunidae. The Fauna and Geography of the Maldive and Laccadive Archipelagoes; Being the Account of the Work carried on and of the Collections made by an Expedition during the years 1899 and 1900. vol. 1, p. 191–208.</t>
         </is>
@@ -572,7 +588,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>De Grave &amp; al., 2009 : A classification of living and fossil genera of decapod crustaceans. Raffles Bulletin of Zoology, 2009, vol. 21, p. 1-109 (texte original)</t>
         </is>
